--- a/pred_ohlcv/54_21/2019-10-12 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-12 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>20222.1820423</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>21270.3820423</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>19511.3820423</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>113371.29475854</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>82455.22512427006</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>82393.54087352006</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>81751.17887352007</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>84920.95097352007</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>84113.78537352008</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-135751.8905313999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-136051.8905313999</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-132866.6687313999</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-132866.6687313999</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-132866.6687313999</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-133365.0846313999</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-137060.3784313999</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-125326.4618313999</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-131142.7317313999</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-152339.2566313999</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-152339.2566313999</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-135904.9373313999</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-132609.3915313999</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-141120.4032313999</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-135556.2905314</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-136504.8426314</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-136706.6909314</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-136706.6909314</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-134653.2754314</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-135496.0210314</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-134319.5375314</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-134608.9375313999</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-133326.3745314</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-133462.6153314</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-132664.9997314</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-128050.4744314</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-128149.9323314</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-126149.9323314</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-126149.9323314</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-124237.9724314</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-124471.2800314</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-124271.0374314</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-124271.0374314</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-124358.5880314</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-123869.1859314</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-12 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-12 PPT ohlcv.xlsx
@@ -7698,7 +7698,7 @@
         <v>113371.29475854</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>113371.29475854</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>86064.01263469005</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>82455.22512427006</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>83626.66542427006</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>79741.64912427006</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>82393.54087352006</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>81445.54087352006</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>81751.17887352007</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>84920.95097352007</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>84113.78537352008</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>61712.79377352008</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>63013.92127352008</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>54878.68827352008</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>62271.90217352008</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>59301.23477352008</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>57066.52357352008</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>55497.52357352008</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>42208.23617352008</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>42355.91687352008</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>49774.51227352008</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>45122.54967352008</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>45273.60707352008</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>44628.33077352008</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>45462.75987352008</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>45523.84619570008</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>43833.58919570009</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>43694.10359570009</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>50578.94829570009</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>48411.54829570009</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>46633.40149570008</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>45789.75059570008</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>46871.75509570009</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>42967.12069570008</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>42968.12069570008</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>40539.94092572008</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>42342.95645574008</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>43089.95645574008</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>43884.66915574008</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>43418.20075574008</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>45079.54435574008</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>44301.19655574008</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>44305.87655574008</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>44061.87665574007</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>40007.87675574007</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>39930.87675574007</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>24632.21775574007</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>26550.76495574007</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>29592.11275574008</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>28230.05275574007</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>27228.31615574007</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-135752.8905313999</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-135751.8905313999</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-136241.0058313999</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-136241.0058313999</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-136241.0058313999</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-135131.8055313999</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-135131.8055313999</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-135131.8055313999</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-132866.6687313999</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-132866.6687313999</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-125302.5214313999</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-115713.3360313999</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-131142.7317313999</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-131141.7317313999</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-131813.9987313999</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-131909.1154313999</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-152339.2566313999</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-152364.0706313999</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-141610.4953313999</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-135904.9373313999</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-132609.3915313999</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-141120.4032313999</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-135556.2905314</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-136504.8426314</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-141508.1252314</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-136706.6909314</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-136706.6909314</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-134653.2754314</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-135496.0210314</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-134319.5375314</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-134608.9375313999</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-133326.3745314</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-133462.6153314</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-132664.9997314</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-128050.4744314</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-128149.9323314</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-126149.9323314</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-126149.9323314</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-124237.9724314</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-124471.2800314</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-124271.0374314</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-124271.0374314</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-124358.5880314</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-123869.1859314</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
